--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_186.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_186.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32122-d76246-Reviews-Days_Inn_Buena_Park-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>875</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>905</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Days-Inn-By-Wyndham-Buena-Park.h170513.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_186.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_186.xlsx
@@ -12230,7 +12230,7 @@
         <v>10412</v>
       </c>
       <c r="B2" t="n">
-        <v>134620</v>
+        <v>165511</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -12301,7 +12301,7 @@
         <v>10412</v>
       </c>
       <c r="B3" t="n">
-        <v>134621</v>
+        <v>165512</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -12372,7 +12372,7 @@
         <v>10412</v>
       </c>
       <c r="B4" t="n">
-        <v>134622</v>
+        <v>165513</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
@@ -12443,7 +12443,7 @@
         <v>10412</v>
       </c>
       <c r="B5" t="n">
-        <v>134623</v>
+        <v>165514</v>
       </c>
       <c r="C5" t="s">
         <v>68</v>
@@ -12514,7 +12514,7 @@
         <v>10412</v>
       </c>
       <c r="B6" t="n">
-        <v>134624</v>
+        <v>165515</v>
       </c>
       <c r="C6" t="s">
         <v>76</v>
@@ -12585,7 +12585,7 @@
         <v>10412</v>
       </c>
       <c r="B7" t="n">
-        <v>134625</v>
+        <v>165516</v>
       </c>
       <c r="C7" t="s">
         <v>82</v>
@@ -12652,7 +12652,7 @@
         <v>10412</v>
       </c>
       <c r="B8" t="n">
-        <v>134626</v>
+        <v>165517</v>
       </c>
       <c r="C8" t="s">
         <v>90</v>
@@ -12723,7 +12723,7 @@
         <v>10412</v>
       </c>
       <c r="B9" t="n">
-        <v>134627</v>
+        <v>165518</v>
       </c>
       <c r="C9" t="s">
         <v>96</v>
@@ -12784,7 +12784,7 @@
         <v>10412</v>
       </c>
       <c r="B10" t="n">
-        <v>134628</v>
+        <v>165519</v>
       </c>
       <c r="C10" t="s">
         <v>102</v>
@@ -12845,7 +12845,7 @@
         <v>10412</v>
       </c>
       <c r="B11" t="n">
-        <v>134629</v>
+        <v>165520</v>
       </c>
       <c r="C11" t="s">
         <v>109</v>
@@ -12916,7 +12916,7 @@
         <v>10412</v>
       </c>
       <c r="B12" t="n">
-        <v>134630</v>
+        <v>165521</v>
       </c>
       <c r="C12" t="s">
         <v>116</v>
@@ -12987,7 +12987,7 @@
         <v>10412</v>
       </c>
       <c r="B13" t="n">
-        <v>134631</v>
+        <v>165522</v>
       </c>
       <c r="C13" t="s">
         <v>123</v>
@@ -13058,7 +13058,7 @@
         <v>10412</v>
       </c>
       <c r="B14" t="n">
-        <v>134632</v>
+        <v>165523</v>
       </c>
       <c r="C14" t="s">
         <v>129</v>
@@ -13129,7 +13129,7 @@
         <v>10412</v>
       </c>
       <c r="B15" t="n">
-        <v>134633</v>
+        <v>165524</v>
       </c>
       <c r="C15" t="s">
         <v>136</v>
@@ -13200,7 +13200,7 @@
         <v>10412</v>
       </c>
       <c r="B16" t="n">
-        <v>134634</v>
+        <v>165525</v>
       </c>
       <c r="C16" t="s">
         <v>141</v>
@@ -13271,7 +13271,7 @@
         <v>10412</v>
       </c>
       <c r="B17" t="n">
-        <v>134635</v>
+        <v>165526</v>
       </c>
       <c r="C17" t="s">
         <v>146</v>
@@ -13342,7 +13342,7 @@
         <v>10412</v>
       </c>
       <c r="B18" t="n">
-        <v>134636</v>
+        <v>165527</v>
       </c>
       <c r="C18" t="s">
         <v>152</v>
@@ -13413,7 +13413,7 @@
         <v>10412</v>
       </c>
       <c r="B19" t="n">
-        <v>134637</v>
+        <v>165528</v>
       </c>
       <c r="C19" t="s">
         <v>159</v>
@@ -13474,7 +13474,7 @@
         <v>10412</v>
       </c>
       <c r="B20" t="n">
-        <v>134638</v>
+        <v>165529</v>
       </c>
       <c r="C20" t="s">
         <v>166</v>
@@ -13616,7 +13616,7 @@
         <v>10412</v>
       </c>
       <c r="B22" t="n">
-        <v>134639</v>
+        <v>165530</v>
       </c>
       <c r="C22" t="s">
         <v>179</v>
@@ -13687,7 +13687,7 @@
         <v>10412</v>
       </c>
       <c r="B23" t="n">
-        <v>134640</v>
+        <v>165531</v>
       </c>
       <c r="C23" t="s">
         <v>185</v>
@@ -13758,7 +13758,7 @@
         <v>10412</v>
       </c>
       <c r="B24" t="n">
-        <v>134641</v>
+        <v>165532</v>
       </c>
       <c r="C24" t="s">
         <v>192</v>
@@ -13829,7 +13829,7 @@
         <v>10412</v>
       </c>
       <c r="B25" t="n">
-        <v>134642</v>
+        <v>165533</v>
       </c>
       <c r="C25" t="s">
         <v>198</v>
@@ -13967,7 +13967,7 @@
         <v>10412</v>
       </c>
       <c r="B27" t="n">
-        <v>134643</v>
+        <v>165534</v>
       </c>
       <c r="C27" t="s">
         <v>209</v>
@@ -14038,7 +14038,7 @@
         <v>10412</v>
       </c>
       <c r="B28" t="n">
-        <v>134644</v>
+        <v>165535</v>
       </c>
       <c r="C28" t="s">
         <v>214</v>
@@ -14109,7 +14109,7 @@
         <v>10412</v>
       </c>
       <c r="B29" t="n">
-        <v>134645</v>
+        <v>165536</v>
       </c>
       <c r="C29" t="s">
         <v>220</v>
@@ -14237,7 +14237,7 @@
         <v>10412</v>
       </c>
       <c r="B31" t="n">
-        <v>134646</v>
+        <v>165537</v>
       </c>
       <c r="C31" t="s">
         <v>232</v>
@@ -14308,7 +14308,7 @@
         <v>10412</v>
       </c>
       <c r="B32" t="n">
-        <v>134647</v>
+        <v>165538</v>
       </c>
       <c r="C32" t="s">
         <v>238</v>
@@ -14379,7 +14379,7 @@
         <v>10412</v>
       </c>
       <c r="B33" t="n">
-        <v>134648</v>
+        <v>165539</v>
       </c>
       <c r="C33" t="s">
         <v>244</v>
@@ -14450,7 +14450,7 @@
         <v>10412</v>
       </c>
       <c r="B34" t="n">
-        <v>134649</v>
+        <v>165540</v>
       </c>
       <c r="C34" t="s">
         <v>250</v>
@@ -14521,7 +14521,7 @@
         <v>10412</v>
       </c>
       <c r="B35" t="n">
-        <v>134650</v>
+        <v>165541</v>
       </c>
       <c r="C35" t="s">
         <v>255</v>
@@ -14592,7 +14592,7 @@
         <v>10412</v>
       </c>
       <c r="B36" t="n">
-        <v>134651</v>
+        <v>165542</v>
       </c>
       <c r="C36" t="s">
         <v>262</v>
@@ -14663,7 +14663,7 @@
         <v>10412</v>
       </c>
       <c r="B37" t="n">
-        <v>134652</v>
+        <v>165543</v>
       </c>
       <c r="C37" t="s">
         <v>268</v>
@@ -14734,7 +14734,7 @@
         <v>10412</v>
       </c>
       <c r="B38" t="n">
-        <v>134653</v>
+        <v>165544</v>
       </c>
       <c r="C38" t="s">
         <v>274</v>
@@ -14876,7 +14876,7 @@
         <v>10412</v>
       </c>
       <c r="B40" t="n">
-        <v>134654</v>
+        <v>165545</v>
       </c>
       <c r="C40" t="s">
         <v>287</v>
@@ -14947,7 +14947,7 @@
         <v>10412</v>
       </c>
       <c r="B41" t="n">
-        <v>134655</v>
+        <v>165546</v>
       </c>
       <c r="C41" t="s">
         <v>294</v>
@@ -15018,7 +15018,7 @@
         <v>10412</v>
       </c>
       <c r="B42" t="n">
-        <v>134656</v>
+        <v>165547</v>
       </c>
       <c r="C42" t="s">
         <v>300</v>
@@ -15089,7 +15089,7 @@
         <v>10412</v>
       </c>
       <c r="B43" t="n">
-        <v>134657</v>
+        <v>165548</v>
       </c>
       <c r="C43" t="s">
         <v>306</v>
@@ -15160,7 +15160,7 @@
         <v>10412</v>
       </c>
       <c r="B44" t="n">
-        <v>134658</v>
+        <v>165549</v>
       </c>
       <c r="C44" t="s">
         <v>312</v>
@@ -15231,7 +15231,7 @@
         <v>10412</v>
       </c>
       <c r="B45" t="n">
-        <v>134659</v>
+        <v>134762</v>
       </c>
       <c r="C45" t="s">
         <v>319</v>
@@ -15302,7 +15302,7 @@
         <v>10412</v>
       </c>
       <c r="B46" t="n">
-        <v>134660</v>
+        <v>165550</v>
       </c>
       <c r="C46" t="s">
         <v>325</v>
@@ -15373,7 +15373,7 @@
         <v>10412</v>
       </c>
       <c r="B47" t="n">
-        <v>134661</v>
+        <v>165551</v>
       </c>
       <c r="C47" t="s">
         <v>331</v>
@@ -15499,7 +15499,7 @@
         <v>10412</v>
       </c>
       <c r="B49" t="n">
-        <v>134662</v>
+        <v>165552</v>
       </c>
       <c r="C49" t="s">
         <v>343</v>
@@ -15570,7 +15570,7 @@
         <v>10412</v>
       </c>
       <c r="B50" t="n">
-        <v>134663</v>
+        <v>165553</v>
       </c>
       <c r="C50" t="s">
         <v>350</v>
@@ -15641,7 +15641,7 @@
         <v>10412</v>
       </c>
       <c r="B51" t="n">
-        <v>134664</v>
+        <v>165554</v>
       </c>
       <c r="C51" t="s">
         <v>356</v>
@@ -15712,7 +15712,7 @@
         <v>10412</v>
       </c>
       <c r="B52" t="n">
-        <v>134665</v>
+        <v>165555</v>
       </c>
       <c r="C52" t="s">
         <v>361</v>
@@ -15783,7 +15783,7 @@
         <v>10412</v>
       </c>
       <c r="B53" t="n">
-        <v>134666</v>
+        <v>165556</v>
       </c>
       <c r="C53" t="s">
         <v>366</v>
@@ -15854,7 +15854,7 @@
         <v>10412</v>
       </c>
       <c r="B54" t="n">
-        <v>134667</v>
+        <v>165557</v>
       </c>
       <c r="C54" t="s">
         <v>372</v>
@@ -15996,7 +15996,7 @@
         <v>10412</v>
       </c>
       <c r="B56" t="n">
-        <v>134668</v>
+        <v>165558</v>
       </c>
       <c r="C56" t="s">
         <v>383</v>
@@ -16067,7 +16067,7 @@
         <v>10412</v>
       </c>
       <c r="B57" t="n">
-        <v>134669</v>
+        <v>165559</v>
       </c>
       <c r="C57" t="s">
         <v>389</v>
@@ -16138,7 +16138,7 @@
         <v>10412</v>
       </c>
       <c r="B58" t="n">
-        <v>134670</v>
+        <v>165560</v>
       </c>
       <c r="C58" t="s">
         <v>394</v>
@@ -16209,7 +16209,7 @@
         <v>10412</v>
       </c>
       <c r="B59" t="n">
-        <v>134671</v>
+        <v>165561</v>
       </c>
       <c r="C59" t="s">
         <v>399</v>
@@ -16280,7 +16280,7 @@
         <v>10412</v>
       </c>
       <c r="B60" t="n">
-        <v>134672</v>
+        <v>165562</v>
       </c>
       <c r="C60" t="s">
         <v>405</v>
@@ -16351,7 +16351,7 @@
         <v>10412</v>
       </c>
       <c r="B61" t="n">
-        <v>134673</v>
+        <v>165563</v>
       </c>
       <c r="C61" t="s">
         <v>412</v>
@@ -16422,7 +16422,7 @@
         <v>10412</v>
       </c>
       <c r="B62" t="n">
-        <v>134674</v>
+        <v>165564</v>
       </c>
       <c r="C62" t="s">
         <v>418</v>
@@ -16493,7 +16493,7 @@
         <v>10412</v>
       </c>
       <c r="B63" t="n">
-        <v>134675</v>
+        <v>165565</v>
       </c>
       <c r="C63" t="s">
         <v>424</v>
@@ -16564,7 +16564,7 @@
         <v>10412</v>
       </c>
       <c r="B64" t="n">
-        <v>134676</v>
+        <v>165566</v>
       </c>
       <c r="C64" t="s">
         <v>430</v>
@@ -16635,7 +16635,7 @@
         <v>10412</v>
       </c>
       <c r="B65" t="n">
-        <v>134677</v>
+        <v>165567</v>
       </c>
       <c r="C65" t="s">
         <v>436</v>
@@ -16706,7 +16706,7 @@
         <v>10412</v>
       </c>
       <c r="B66" t="n">
-        <v>134678</v>
+        <v>165568</v>
       </c>
       <c r="C66" t="s">
         <v>444</v>
@@ -16777,7 +16777,7 @@
         <v>10412</v>
       </c>
       <c r="B67" t="n">
-        <v>134679</v>
+        <v>165569</v>
       </c>
       <c r="C67" t="s">
         <v>450</v>
@@ -16848,7 +16848,7 @@
         <v>10412</v>
       </c>
       <c r="B68" t="n">
-        <v>134680</v>
+        <v>165570</v>
       </c>
       <c r="C68" t="s">
         <v>455</v>
@@ -17055,7 +17055,7 @@
         <v>10412</v>
       </c>
       <c r="B71" t="n">
-        <v>134681</v>
+        <v>165571</v>
       </c>
       <c r="C71" t="s">
         <v>474</v>
@@ -17197,7 +17197,7 @@
         <v>10412</v>
       </c>
       <c r="B73" t="n">
-        <v>134682</v>
+        <v>165572</v>
       </c>
       <c r="C73" t="s">
         <v>486</v>
@@ -17268,7 +17268,7 @@
         <v>10412</v>
       </c>
       <c r="B74" t="n">
-        <v>134683</v>
+        <v>165573</v>
       </c>
       <c r="C74" t="s">
         <v>492</v>
@@ -17339,7 +17339,7 @@
         <v>10412</v>
       </c>
       <c r="B75" t="n">
-        <v>134684</v>
+        <v>165574</v>
       </c>
       <c r="C75" t="s">
         <v>498</v>
@@ -17410,7 +17410,7 @@
         <v>10412</v>
       </c>
       <c r="B76" t="n">
-        <v>134685</v>
+        <v>165575</v>
       </c>
       <c r="C76" t="s">
         <v>504</v>
@@ -17481,7 +17481,7 @@
         <v>10412</v>
       </c>
       <c r="B77" t="n">
-        <v>134686</v>
+        <v>165576</v>
       </c>
       <c r="C77" t="s">
         <v>510</v>
@@ -17613,7 +17613,7 @@
         <v>10412</v>
       </c>
       <c r="B79" t="n">
-        <v>134687</v>
+        <v>165577</v>
       </c>
       <c r="C79" t="s">
         <v>522</v>
@@ -17684,7 +17684,7 @@
         <v>10412</v>
       </c>
       <c r="B80" t="n">
-        <v>134688</v>
+        <v>165578</v>
       </c>
       <c r="C80" t="s">
         <v>529</v>
@@ -17755,7 +17755,7 @@
         <v>10412</v>
       </c>
       <c r="B81" t="n">
-        <v>134689</v>
+        <v>165579</v>
       </c>
       <c r="C81" t="s">
         <v>535</v>
@@ -17816,7 +17816,7 @@
         <v>10412</v>
       </c>
       <c r="B82" t="n">
-        <v>134690</v>
+        <v>165580</v>
       </c>
       <c r="C82" t="s">
         <v>541</v>
@@ -17887,7 +17887,7 @@
         <v>10412</v>
       </c>
       <c r="B83" t="n">
-        <v>134691</v>
+        <v>165581</v>
       </c>
       <c r="C83" t="s">
         <v>547</v>
@@ -17958,7 +17958,7 @@
         <v>10412</v>
       </c>
       <c r="B84" t="n">
-        <v>134692</v>
+        <v>165582</v>
       </c>
       <c r="C84" t="s">
         <v>554</v>
@@ -18029,7 +18029,7 @@
         <v>10412</v>
       </c>
       <c r="B85" t="n">
-        <v>134693</v>
+        <v>165583</v>
       </c>
       <c r="C85" t="s">
         <v>560</v>
@@ -18100,7 +18100,7 @@
         <v>10412</v>
       </c>
       <c r="B86" t="n">
-        <v>134694</v>
+        <v>165584</v>
       </c>
       <c r="C86" t="s">
         <v>566</v>
@@ -18171,7 +18171,7 @@
         <v>10412</v>
       </c>
       <c r="B87" t="n">
-        <v>134695</v>
+        <v>165585</v>
       </c>
       <c r="C87" t="s">
         <v>572</v>
@@ -18242,7 +18242,7 @@
         <v>10412</v>
       </c>
       <c r="B88" t="n">
-        <v>134696</v>
+        <v>165586</v>
       </c>
       <c r="C88" t="s">
         <v>578</v>
@@ -18313,7 +18313,7 @@
         <v>10412</v>
       </c>
       <c r="B89" t="n">
-        <v>134697</v>
+        <v>165587</v>
       </c>
       <c r="C89" t="s">
         <v>583</v>
@@ -18445,7 +18445,7 @@
         <v>10412</v>
       </c>
       <c r="B91" t="n">
-        <v>134698</v>
+        <v>165588</v>
       </c>
       <c r="C91" t="s">
         <v>595</v>
@@ -18516,7 +18516,7 @@
         <v>10412</v>
       </c>
       <c r="B92" t="n">
-        <v>134699</v>
+        <v>165589</v>
       </c>
       <c r="C92" t="s">
         <v>601</v>
@@ -18587,7 +18587,7 @@
         <v>10412</v>
       </c>
       <c r="B93" t="n">
-        <v>134700</v>
+        <v>165590</v>
       </c>
       <c r="C93" t="s">
         <v>608</v>
@@ -18658,7 +18658,7 @@
         <v>10412</v>
       </c>
       <c r="B94" t="n">
-        <v>134701</v>
+        <v>165591</v>
       </c>
       <c r="C94" t="s">
         <v>614</v>
@@ -18729,7 +18729,7 @@
         <v>10412</v>
       </c>
       <c r="B95" t="n">
-        <v>134702</v>
+        <v>165592</v>
       </c>
       <c r="C95" t="s">
         <v>620</v>
@@ -18800,7 +18800,7 @@
         <v>10412</v>
       </c>
       <c r="B96" t="n">
-        <v>134703</v>
+        <v>165593</v>
       </c>
       <c r="C96" t="s">
         <v>626</v>
@@ -18871,7 +18871,7 @@
         <v>10412</v>
       </c>
       <c r="B97" t="n">
-        <v>134704</v>
+        <v>165594</v>
       </c>
       <c r="C97" t="s">
         <v>632</v>
@@ -18942,7 +18942,7 @@
         <v>10412</v>
       </c>
       <c r="B98" t="n">
-        <v>134705</v>
+        <v>165595</v>
       </c>
       <c r="C98" t="s">
         <v>637</v>
@@ -19013,7 +19013,7 @@
         <v>10412</v>
       </c>
       <c r="B99" t="n">
-        <v>134706</v>
+        <v>165596</v>
       </c>
       <c r="C99" t="s">
         <v>643</v>
@@ -19084,7 +19084,7 @@
         <v>10412</v>
       </c>
       <c r="B100" t="n">
-        <v>134707</v>
+        <v>165597</v>
       </c>
       <c r="C100" t="s">
         <v>648</v>
@@ -19151,7 +19151,7 @@
         <v>10412</v>
       </c>
       <c r="B101" t="n">
-        <v>134708</v>
+        <v>165598</v>
       </c>
       <c r="C101" t="s">
         <v>655</v>
@@ -19222,7 +19222,7 @@
         <v>10412</v>
       </c>
       <c r="B102" t="n">
-        <v>134709</v>
+        <v>165599</v>
       </c>
       <c r="C102" t="s">
         <v>661</v>
@@ -19293,7 +19293,7 @@
         <v>10412</v>
       </c>
       <c r="B103" t="n">
-        <v>134710</v>
+        <v>165600</v>
       </c>
       <c r="C103" t="s">
         <v>669</v>
@@ -19364,7 +19364,7 @@
         <v>10412</v>
       </c>
       <c r="B104" t="n">
-        <v>134711</v>
+        <v>165601</v>
       </c>
       <c r="C104" t="s">
         <v>675</v>
@@ -19435,7 +19435,7 @@
         <v>10412</v>
       </c>
       <c r="B105" t="n">
-        <v>134712</v>
+        <v>165602</v>
       </c>
       <c r="C105" t="s">
         <v>681</v>
@@ -19506,7 +19506,7 @@
         <v>10412</v>
       </c>
       <c r="B106" t="n">
-        <v>134713</v>
+        <v>165603</v>
       </c>
       <c r="C106" t="s">
         <v>687</v>
@@ -19648,7 +19648,7 @@
         <v>10412</v>
       </c>
       <c r="B108" t="n">
-        <v>134714</v>
+        <v>165604</v>
       </c>
       <c r="C108" t="s">
         <v>699</v>
@@ -19719,7 +19719,7 @@
         <v>10412</v>
       </c>
       <c r="B109" t="n">
-        <v>134715</v>
+        <v>165605</v>
       </c>
       <c r="C109" t="s">
         <v>705</v>
@@ -19790,7 +19790,7 @@
         <v>10412</v>
       </c>
       <c r="B110" t="n">
-        <v>134716</v>
+        <v>165606</v>
       </c>
       <c r="C110" t="s">
         <v>710</v>
@@ -19861,7 +19861,7 @@
         <v>10412</v>
       </c>
       <c r="B111" t="n">
-        <v>134717</v>
+        <v>165607</v>
       </c>
       <c r="C111" t="s">
         <v>716</v>
@@ -19932,7 +19932,7 @@
         <v>10412</v>
       </c>
       <c r="B112" t="n">
-        <v>134718</v>
+        <v>165608</v>
       </c>
       <c r="C112" t="s">
         <v>722</v>
@@ -20003,7 +20003,7 @@
         <v>10412</v>
       </c>
       <c r="B113" t="n">
-        <v>134719</v>
+        <v>165609</v>
       </c>
       <c r="C113" t="s">
         <v>728</v>
@@ -20074,7 +20074,7 @@
         <v>10412</v>
       </c>
       <c r="B114" t="n">
-        <v>134720</v>
+        <v>165610</v>
       </c>
       <c r="C114" t="s">
         <v>734</v>
@@ -20145,7 +20145,7 @@
         <v>10412</v>
       </c>
       <c r="B115" t="n">
-        <v>134721</v>
+        <v>165611</v>
       </c>
       <c r="C115" t="s">
         <v>741</v>
@@ -20216,7 +20216,7 @@
         <v>10412</v>
       </c>
       <c r="B116" t="n">
-        <v>134722</v>
+        <v>165612</v>
       </c>
       <c r="C116" t="s">
         <v>746</v>
@@ -20287,7 +20287,7 @@
         <v>10412</v>
       </c>
       <c r="B117" t="n">
-        <v>134723</v>
+        <v>165613</v>
       </c>
       <c r="C117" t="s">
         <v>752</v>
@@ -20358,7 +20358,7 @@
         <v>10412</v>
       </c>
       <c r="B118" t="n">
-        <v>134724</v>
+        <v>165614</v>
       </c>
       <c r="C118" t="s">
         <v>759</v>
@@ -20429,7 +20429,7 @@
         <v>10412</v>
       </c>
       <c r="B119" t="n">
-        <v>134725</v>
+        <v>165615</v>
       </c>
       <c r="C119" t="s">
         <v>764</v>
@@ -20500,7 +20500,7 @@
         <v>10412</v>
       </c>
       <c r="B120" t="n">
-        <v>134726</v>
+        <v>165616</v>
       </c>
       <c r="C120" t="s">
         <v>770</v>
@@ -20565,7 +20565,7 @@
         <v>10412</v>
       </c>
       <c r="B121" t="n">
-        <v>134727</v>
+        <v>165617</v>
       </c>
       <c r="C121" t="s">
         <v>777</v>
@@ -20636,7 +20636,7 @@
         <v>10412</v>
       </c>
       <c r="B122" t="n">
-        <v>134728</v>
+        <v>165618</v>
       </c>
       <c r="C122" t="s">
         <v>783</v>
@@ -20707,7 +20707,7 @@
         <v>10412</v>
       </c>
       <c r="B123" t="n">
-        <v>134729</v>
+        <v>165619</v>
       </c>
       <c r="C123" t="s">
         <v>789</v>
@@ -20778,7 +20778,7 @@
         <v>10412</v>
       </c>
       <c r="B124" t="n">
-        <v>134730</v>
+        <v>165620</v>
       </c>
       <c r="C124" t="s">
         <v>795</v>
@@ -20849,7 +20849,7 @@
         <v>10412</v>
       </c>
       <c r="B125" t="n">
-        <v>134731</v>
+        <v>165621</v>
       </c>
       <c r="C125" t="s">
         <v>801</v>
@@ -20991,7 +20991,7 @@
         <v>10412</v>
       </c>
       <c r="B127" t="n">
-        <v>134732</v>
+        <v>165622</v>
       </c>
       <c r="C127" t="s">
         <v>814</v>
@@ -21062,7 +21062,7 @@
         <v>10412</v>
       </c>
       <c r="B128" t="n">
-        <v>134733</v>
+        <v>165623</v>
       </c>
       <c r="C128" t="s">
         <v>819</v>
@@ -21133,7 +21133,7 @@
         <v>10412</v>
       </c>
       <c r="B129" t="n">
-        <v>134734</v>
+        <v>165624</v>
       </c>
       <c r="C129" t="s">
         <v>825</v>
@@ -21204,7 +21204,7 @@
         <v>10412</v>
       </c>
       <c r="B130" t="n">
-        <v>134735</v>
+        <v>165625</v>
       </c>
       <c r="C130" t="s">
         <v>831</v>
@@ -21275,7 +21275,7 @@
         <v>10412</v>
       </c>
       <c r="B131" t="n">
-        <v>134736</v>
+        <v>165626</v>
       </c>
       <c r="C131" t="s">
         <v>839</v>
@@ -21346,7 +21346,7 @@
         <v>10412</v>
       </c>
       <c r="B132" t="n">
-        <v>134737</v>
+        <v>165627</v>
       </c>
       <c r="C132" t="s">
         <v>845</v>
@@ -21417,7 +21417,7 @@
         <v>10412</v>
       </c>
       <c r="B133" t="n">
-        <v>134738</v>
+        <v>165628</v>
       </c>
       <c r="C133" t="s">
         <v>851</v>
@@ -21488,7 +21488,7 @@
         <v>10412</v>
       </c>
       <c r="B134" t="n">
-        <v>134739</v>
+        <v>165629</v>
       </c>
       <c r="C134" t="s">
         <v>857</v>
@@ -21559,7 +21559,7 @@
         <v>10412</v>
       </c>
       <c r="B135" t="n">
-        <v>134740</v>
+        <v>165630</v>
       </c>
       <c r="C135" t="s">
         <v>863</v>
@@ -21630,7 +21630,7 @@
         <v>10412</v>
       </c>
       <c r="B136" t="n">
-        <v>134741</v>
+        <v>165631</v>
       </c>
       <c r="C136" t="s">
         <v>871</v>
@@ -21701,7 +21701,7 @@
         <v>10412</v>
       </c>
       <c r="B137" t="n">
-        <v>134742</v>
+        <v>165632</v>
       </c>
       <c r="C137" t="s">
         <v>876</v>
@@ -21776,7 +21776,7 @@
         <v>10412</v>
       </c>
       <c r="B138" t="n">
-        <v>134743</v>
+        <v>165633</v>
       </c>
       <c r="C138" t="s">
         <v>885</v>
@@ -21926,7 +21926,7 @@
         <v>10412</v>
       </c>
       <c r="B140" t="n">
-        <v>134744</v>
+        <v>165634</v>
       </c>
       <c r="C140" t="s">
         <v>898</v>
@@ -22001,7 +22001,7 @@
         <v>10412</v>
       </c>
       <c r="B141" t="n">
-        <v>134745</v>
+        <v>165635</v>
       </c>
       <c r="C141" t="s">
         <v>907</v>
@@ -22076,7 +22076,7 @@
         <v>10412</v>
       </c>
       <c r="B142" t="n">
-        <v>134746</v>
+        <v>165636</v>
       </c>
       <c r="C142" t="s">
         <v>914</v>
@@ -22151,7 +22151,7 @@
         <v>10412</v>
       </c>
       <c r="B143" t="n">
-        <v>134747</v>
+        <v>134640</v>
       </c>
       <c r="C143" t="s">
         <v>921</v>
@@ -22295,7 +22295,7 @@
         <v>10412</v>
       </c>
       <c r="B145" t="n">
-        <v>134748</v>
+        <v>165637</v>
       </c>
       <c r="C145" t="s">
         <v>936</v>
@@ -22370,7 +22370,7 @@
         <v>10412</v>
       </c>
       <c r="B146" t="n">
-        <v>134749</v>
+        <v>165638</v>
       </c>
       <c r="C146" t="s">
         <v>944</v>
@@ -22445,7 +22445,7 @@
         <v>10412</v>
       </c>
       <c r="B147" t="n">
-        <v>134750</v>
+        <v>165639</v>
       </c>
       <c r="C147" t="s">
         <v>953</v>
@@ -22520,7 +22520,7 @@
         <v>10412</v>
       </c>
       <c r="B148" t="n">
-        <v>134751</v>
+        <v>165640</v>
       </c>
       <c r="C148" t="s">
         <v>960</v>
@@ -22595,7 +22595,7 @@
         <v>10412</v>
       </c>
       <c r="B149" t="n">
-        <v>134752</v>
+        <v>165641</v>
       </c>
       <c r="C149" t="s">
         <v>966</v>
@@ -22875,7 +22875,7 @@
         <v>10412</v>
       </c>
       <c r="B153" t="n">
-        <v>134753</v>
+        <v>165642</v>
       </c>
       <c r="C153" t="s">
         <v>997</v>
@@ -23025,7 +23025,7 @@
         <v>10412</v>
       </c>
       <c r="B155" t="n">
-        <v>134754</v>
+        <v>165643</v>
       </c>
       <c r="C155" t="s">
         <v>1012</v>
@@ -23100,7 +23100,7 @@
         <v>10412</v>
       </c>
       <c r="B156" t="n">
-        <v>134755</v>
+        <v>165644</v>
       </c>
       <c r="C156" t="s">
         <v>1019</v>
@@ -23175,7 +23175,7 @@
         <v>10412</v>
       </c>
       <c r="B157" t="n">
-        <v>134756</v>
+        <v>165645</v>
       </c>
       <c r="C157" t="s">
         <v>1026</v>
@@ -23250,7 +23250,7 @@
         <v>10412</v>
       </c>
       <c r="B158" t="n">
-        <v>134757</v>
+        <v>165646</v>
       </c>
       <c r="C158" t="s">
         <v>1035</v>
@@ -23325,7 +23325,7 @@
         <v>10412</v>
       </c>
       <c r="B159" t="n">
-        <v>134758</v>
+        <v>165647</v>
       </c>
       <c r="C159" t="s">
         <v>1045</v>
@@ -23400,7 +23400,7 @@
         <v>10412</v>
       </c>
       <c r="B160" t="n">
-        <v>134759</v>
+        <v>165648</v>
       </c>
       <c r="C160" t="s">
         <v>1052</v>
@@ -23475,7 +23475,7 @@
         <v>10412</v>
       </c>
       <c r="B161" t="n">
-        <v>134760</v>
+        <v>165649</v>
       </c>
       <c r="C161" t="s">
         <v>1059</v>
@@ -23615,7 +23615,7 @@
         <v>10412</v>
       </c>
       <c r="B163" t="n">
-        <v>134761</v>
+        <v>165650</v>
       </c>
       <c r="C163" t="s">
         <v>1074</v>
@@ -23680,7 +23680,7 @@
         <v>10412</v>
       </c>
       <c r="B164" t="n">
-        <v>134762</v>
+        <v>165651</v>
       </c>
       <c r="C164" t="s">
         <v>1080</v>
@@ -23755,7 +23755,7 @@
         <v>10412</v>
       </c>
       <c r="B165" t="n">
-        <v>134763</v>
+        <v>165652</v>
       </c>
       <c r="C165" t="s">
         <v>1089</v>
@@ -23830,7 +23830,7 @@
         <v>10412</v>
       </c>
       <c r="B166" t="n">
-        <v>134764</v>
+        <v>165653</v>
       </c>
       <c r="C166" t="s">
         <v>1096</v>
@@ -23903,7 +23903,7 @@
         <v>10412</v>
       </c>
       <c r="B167" t="n">
-        <v>134765</v>
+        <v>165654</v>
       </c>
       <c r="C167" t="s">
         <v>1102</v>
@@ -23968,7 +23968,7 @@
         <v>10412</v>
       </c>
       <c r="B168" t="n">
-        <v>134766</v>
+        <v>165655</v>
       </c>
       <c r="C168" t="s">
         <v>1109</v>
@@ -24118,7 +24118,7 @@
         <v>10412</v>
       </c>
       <c r="B170" t="n">
-        <v>134767</v>
+        <v>165656</v>
       </c>
       <c r="C170" t="s">
         <v>1123</v>
@@ -24183,7 +24183,7 @@
         <v>10412</v>
       </c>
       <c r="B171" t="n">
-        <v>134768</v>
+        <v>165657</v>
       </c>
       <c r="C171" t="s">
         <v>1131</v>
@@ -24258,7 +24258,7 @@
         <v>10412</v>
       </c>
       <c r="B172" t="n">
-        <v>134769</v>
+        <v>165658</v>
       </c>
       <c r="C172" t="s">
         <v>1138</v>
@@ -24333,7 +24333,7 @@
         <v>10412</v>
       </c>
       <c r="B173" t="n">
-        <v>134770</v>
+        <v>165659</v>
       </c>
       <c r="C173" t="s">
         <v>1145</v>
@@ -24404,7 +24404,7 @@
         <v>10412</v>
       </c>
       <c r="B174" t="n">
-        <v>134771</v>
+        <v>165660</v>
       </c>
       <c r="C174" t="s">
         <v>1152</v>
@@ -24479,7 +24479,7 @@
         <v>10412</v>
       </c>
       <c r="B175" t="n">
-        <v>134772</v>
+        <v>165661</v>
       </c>
       <c r="C175" t="s">
         <v>1159</v>
@@ -24550,7 +24550,7 @@
         <v>10412</v>
       </c>
       <c r="B176" t="n">
-        <v>134773</v>
+        <v>165662</v>
       </c>
       <c r="C176" t="s">
         <v>1168</v>
@@ -24625,7 +24625,7 @@
         <v>10412</v>
       </c>
       <c r="B177" t="n">
-        <v>134774</v>
+        <v>165663</v>
       </c>
       <c r="C177" t="s">
         <v>1178</v>
@@ -24690,7 +24690,7 @@
         <v>10412</v>
       </c>
       <c r="B178" t="n">
-        <v>134775</v>
+        <v>165664</v>
       </c>
       <c r="C178" t="s">
         <v>1187</v>
@@ -24765,7 +24765,7 @@
         <v>10412</v>
       </c>
       <c r="B179" t="n">
-        <v>134776</v>
+        <v>165665</v>
       </c>
       <c r="C179" t="s">
         <v>1193</v>
@@ -24836,7 +24836,7 @@
         <v>10412</v>
       </c>
       <c r="B180" t="n">
-        <v>134777</v>
+        <v>165666</v>
       </c>
       <c r="C180" t="s">
         <v>1200</v>
@@ -24911,7 +24911,7 @@
         <v>10412</v>
       </c>
       <c r="B181" t="n">
-        <v>134778</v>
+        <v>165667</v>
       </c>
       <c r="C181" t="s">
         <v>1207</v>
@@ -24986,7 +24986,7 @@
         <v>10412</v>
       </c>
       <c r="B182" t="n">
-        <v>134746</v>
+        <v>134640</v>
       </c>
       <c r="C182" t="s">
         <v>921</v>
@@ -25136,7 +25136,7 @@
         <v>10412</v>
       </c>
       <c r="B184" t="n">
-        <v>134779</v>
+        <v>165668</v>
       </c>
       <c r="C184" t="s">
         <v>1227</v>
@@ -25276,7 +25276,7 @@
         <v>10412</v>
       </c>
       <c r="B186" t="n">
-        <v>134780</v>
+        <v>165669</v>
       </c>
       <c r="C186" t="s">
         <v>1242</v>
@@ -25351,7 +25351,7 @@
         <v>10412</v>
       </c>
       <c r="B187" t="n">
-        <v>134781</v>
+        <v>165670</v>
       </c>
       <c r="C187" t="s">
         <v>1249</v>
@@ -25426,7 +25426,7 @@
         <v>10412</v>
       </c>
       <c r="B188" t="n">
-        <v>134782</v>
+        <v>165671</v>
       </c>
       <c r="C188" t="s">
         <v>1256</v>
@@ -25501,7 +25501,7 @@
         <v>10412</v>
       </c>
       <c r="B189" t="n">
-        <v>134783</v>
+        <v>165672</v>
       </c>
       <c r="C189" t="s">
         <v>1265</v>
@@ -25570,7 +25570,7 @@
         <v>10412</v>
       </c>
       <c r="B190" t="n">
-        <v>134784</v>
+        <v>165673</v>
       </c>
       <c r="C190" t="s">
         <v>1274</v>
@@ -25643,7 +25643,7 @@
         <v>10412</v>
       </c>
       <c r="B191" t="n">
-        <v>134785</v>
+        <v>165674</v>
       </c>
       <c r="C191" t="s">
         <v>1282</v>
@@ -25712,7 +25712,7 @@
         <v>10412</v>
       </c>
       <c r="B192" t="n">
-        <v>134786</v>
+        <v>165675</v>
       </c>
       <c r="C192" t="s">
         <v>1291</v>
@@ -25787,7 +25787,7 @@
         <v>10412</v>
       </c>
       <c r="B193" t="n">
-        <v>134787</v>
+        <v>165676</v>
       </c>
       <c r="C193" t="s">
         <v>1300</v>
@@ -25862,7 +25862,7 @@
         <v>10412</v>
       </c>
       <c r="B194" t="n">
-        <v>134788</v>
+        <v>165677</v>
       </c>
       <c r="C194" t="s">
         <v>1306</v>
@@ -25937,7 +25937,7 @@
         <v>10412</v>
       </c>
       <c r="B195" t="n">
-        <v>134789</v>
+        <v>165678</v>
       </c>
       <c r="C195" t="s">
         <v>1316</v>
@@ -26008,7 +26008,7 @@
         <v>10412</v>
       </c>
       <c r="B196" t="n">
-        <v>134790</v>
+        <v>165679</v>
       </c>
       <c r="C196" t="s">
         <v>1323</v>
@@ -26083,7 +26083,7 @@
         <v>10412</v>
       </c>
       <c r="B197" t="n">
-        <v>134791</v>
+        <v>165680</v>
       </c>
       <c r="C197" t="s">
         <v>1330</v>
@@ -26158,7 +26158,7 @@
         <v>10412</v>
       </c>
       <c r="B198" t="n">
-        <v>134792</v>
+        <v>165681</v>
       </c>
       <c r="C198" t="s">
         <v>1337</v>
@@ -26308,7 +26308,7 @@
         <v>10412</v>
       </c>
       <c r="B200" t="n">
-        <v>134793</v>
+        <v>165682</v>
       </c>
       <c r="C200" t="s">
         <v>1353</v>
@@ -26533,7 +26533,7 @@
         <v>10412</v>
       </c>
       <c r="B203" t="n">
-        <v>134794</v>
+        <v>165683</v>
       </c>
       <c r="C203" t="s">
         <v>1376</v>
@@ -26608,7 +26608,7 @@
         <v>10412</v>
       </c>
       <c r="B204" t="n">
-        <v>134795</v>
+        <v>165684</v>
       </c>
       <c r="C204" t="s">
         <v>1385</v>
@@ -26683,7 +26683,7 @@
         <v>10412</v>
       </c>
       <c r="B205" t="n">
-        <v>134796</v>
+        <v>165685</v>
       </c>
       <c r="C205" t="s">
         <v>1391</v>
@@ -26744,7 +26744,7 @@
         <v>10412</v>
       </c>
       <c r="B206" t="n">
-        <v>134797</v>
+        <v>165686</v>
       </c>
       <c r="C206" t="s">
         <v>1400</v>
@@ -26819,7 +26819,7 @@
         <v>10412</v>
       </c>
       <c r="B207" t="n">
-        <v>134798</v>
+        <v>165687</v>
       </c>
       <c r="C207" t="s">
         <v>1409</v>
@@ -26969,7 +26969,7 @@
         <v>10412</v>
       </c>
       <c r="B209" t="n">
-        <v>134799</v>
+        <v>165688</v>
       </c>
       <c r="C209" t="s">
         <v>1424</v>
@@ -27115,7 +27115,7 @@
         <v>10412</v>
       </c>
       <c r="B211" t="n">
-        <v>134800</v>
+        <v>165689</v>
       </c>
       <c r="C211" t="s">
         <v>1439</v>
@@ -27261,7 +27261,7 @@
         <v>10412</v>
       </c>
       <c r="B213" t="n">
-        <v>134801</v>
+        <v>165690</v>
       </c>
       <c r="C213" t="s">
         <v>1455</v>
@@ -27336,7 +27336,7 @@
         <v>10412</v>
       </c>
       <c r="B214" t="n">
-        <v>134802</v>
+        <v>165691</v>
       </c>
       <c r="C214" t="s">
         <v>1464</v>
@@ -27411,7 +27411,7 @@
         <v>10412</v>
       </c>
       <c r="B215" t="n">
-        <v>134803</v>
+        <v>165692</v>
       </c>
       <c r="C215" t="s">
         <v>1471</v>
@@ -27486,7 +27486,7 @@
         <v>10412</v>
       </c>
       <c r="B216" t="n">
-        <v>134804</v>
+        <v>165693</v>
       </c>
       <c r="C216" t="s">
         <v>1478</v>
@@ -27711,7 +27711,7 @@
         <v>10412</v>
       </c>
       <c r="B219" t="n">
-        <v>134805</v>
+        <v>165694</v>
       </c>
       <c r="C219" t="s">
         <v>1501</v>
@@ -27786,7 +27786,7 @@
         <v>10412</v>
       </c>
       <c r="B220" t="n">
-        <v>134806</v>
+        <v>165695</v>
       </c>
       <c r="C220" t="s">
         <v>1507</v>
@@ -27857,7 +27857,7 @@
         <v>10412</v>
       </c>
       <c r="B221" t="n">
-        <v>134807</v>
+        <v>165696</v>
       </c>
       <c r="C221" t="s">
         <v>1516</v>
@@ -27932,7 +27932,7 @@
         <v>10412</v>
       </c>
       <c r="B222" t="n">
-        <v>134808</v>
+        <v>165697</v>
       </c>
       <c r="C222" t="s">
         <v>1523</v>
@@ -28007,7 +28007,7 @@
         <v>10412</v>
       </c>
       <c r="B223" t="n">
-        <v>134809</v>
+        <v>165698</v>
       </c>
       <c r="C223" t="s">
         <v>1530</v>
@@ -28082,7 +28082,7 @@
         <v>10412</v>
       </c>
       <c r="B224" t="n">
-        <v>134810</v>
+        <v>165699</v>
       </c>
       <c r="C224" t="s">
         <v>1537</v>
@@ -28157,7 +28157,7 @@
         <v>10412</v>
       </c>
       <c r="B225" t="n">
-        <v>134811</v>
+        <v>165700</v>
       </c>
       <c r="C225" t="s">
         <v>1544</v>
@@ -28226,7 +28226,7 @@
         <v>10412</v>
       </c>
       <c r="B226" t="n">
-        <v>134812</v>
+        <v>165701</v>
       </c>
       <c r="C226" t="s">
         <v>1552</v>
@@ -28297,7 +28297,7 @@
         <v>10412</v>
       </c>
       <c r="B227" t="n">
-        <v>134813</v>
+        <v>165702</v>
       </c>
       <c r="C227" t="s">
         <v>1559</v>
@@ -28372,7 +28372,7 @@
         <v>10412</v>
       </c>
       <c r="B228" t="n">
-        <v>134814</v>
+        <v>165703</v>
       </c>
       <c r="C228" t="s">
         <v>1566</v>
@@ -28447,7 +28447,7 @@
         <v>10412</v>
       </c>
       <c r="B229" t="n">
-        <v>134815</v>
+        <v>165704</v>
       </c>
       <c r="C229" t="s">
         <v>1573</v>
@@ -28522,7 +28522,7 @@
         <v>10412</v>
       </c>
       <c r="B230" t="n">
-        <v>134816</v>
+        <v>165705</v>
       </c>
       <c r="C230" t="s">
         <v>1580</v>
@@ -28666,7 +28666,7 @@
         <v>10412</v>
       </c>
       <c r="B232" t="n">
-        <v>134817</v>
+        <v>165706</v>
       </c>
       <c r="C232" t="s">
         <v>1594</v>
@@ -28741,7 +28741,7 @@
         <v>10412</v>
       </c>
       <c r="B233" t="n">
-        <v>134818</v>
+        <v>165707</v>
       </c>
       <c r="C233" t="s">
         <v>1603</v>
@@ -28891,7 +28891,7 @@
         <v>10412</v>
       </c>
       <c r="B235" t="n">
-        <v>134819</v>
+        <v>165708</v>
       </c>
       <c r="C235" t="s">
         <v>1616</v>
@@ -28956,7 +28956,7 @@
         <v>10412</v>
       </c>
       <c r="B236" t="n">
-        <v>134820</v>
+        <v>165709</v>
       </c>
       <c r="C236" t="s">
         <v>1623</v>
@@ -29027,7 +29027,7 @@
         <v>10412</v>
       </c>
       <c r="B237" t="n">
-        <v>134821</v>
+        <v>165710</v>
       </c>
       <c r="C237" t="s">
         <v>1630</v>
@@ -29094,7 +29094,7 @@
         <v>10412</v>
       </c>
       <c r="B238" t="n">
-        <v>134822</v>
+        <v>165711</v>
       </c>
       <c r="C238" t="s">
         <v>1638</v>
@@ -29165,7 +29165,7 @@
         <v>10412</v>
       </c>
       <c r="B239" t="n">
-        <v>134823</v>
+        <v>165712</v>
       </c>
       <c r="C239" t="s">
         <v>1644</v>
@@ -29236,7 +29236,7 @@
         <v>10412</v>
       </c>
       <c r="B240" t="n">
-        <v>134824</v>
+        <v>165713</v>
       </c>
       <c r="C240" t="s">
         <v>1650</v>
@@ -29307,7 +29307,7 @@
         <v>10412</v>
       </c>
       <c r="B241" t="n">
-        <v>134825</v>
+        <v>165714</v>
       </c>
       <c r="C241" t="s">
         <v>1657</v>
@@ -29378,7 +29378,7 @@
         <v>10412</v>
       </c>
       <c r="B242" t="n">
-        <v>134826</v>
+        <v>165715</v>
       </c>
       <c r="C242" t="s">
         <v>1663</v>
@@ -29528,7 +29528,7 @@
         <v>10412</v>
       </c>
       <c r="B244" t="n">
-        <v>134827</v>
+        <v>165716</v>
       </c>
       <c r="C244" t="s">
         <v>1679</v>
@@ -29753,7 +29753,7 @@
         <v>10412</v>
       </c>
       <c r="B247" t="n">
-        <v>134828</v>
+        <v>165717</v>
       </c>
       <c r="C247" t="s">
         <v>1701</v>
@@ -29889,7 +29889,7 @@
         <v>10412</v>
       </c>
       <c r="B249" t="n">
-        <v>134829</v>
+        <v>165718</v>
       </c>
       <c r="C249" t="s">
         <v>1719</v>
@@ -29964,7 +29964,7 @@
         <v>10412</v>
       </c>
       <c r="B250" t="n">
-        <v>134830</v>
+        <v>165719</v>
       </c>
       <c r="C250" t="s">
         <v>1727</v>
@@ -30031,7 +30031,7 @@
         <v>10412</v>
       </c>
       <c r="B251" t="n">
-        <v>134831</v>
+        <v>165720</v>
       </c>
       <c r="C251" t="s">
         <v>1734</v>
@@ -30106,7 +30106,7 @@
         <v>10412</v>
       </c>
       <c r="B252" t="n">
-        <v>134832</v>
+        <v>165721</v>
       </c>
       <c r="C252" t="s">
         <v>1743</v>
@@ -30181,7 +30181,7 @@
         <v>10412</v>
       </c>
       <c r="B253" t="n">
-        <v>134833</v>
+        <v>165722</v>
       </c>
       <c r="C253" t="s">
         <v>1750</v>
@@ -30256,7 +30256,7 @@
         <v>10412</v>
       </c>
       <c r="B254" t="n">
-        <v>134834</v>
+        <v>165723</v>
       </c>
       <c r="C254" t="s">
         <v>1757</v>
@@ -30331,7 +30331,7 @@
         <v>10412</v>
       </c>
       <c r="B255" t="n">
-        <v>134835</v>
+        <v>134666</v>
       </c>
       <c r="C255" t="s">
         <v>1766</v>
@@ -30406,7 +30406,7 @@
         <v>10412</v>
       </c>
       <c r="B256" t="n">
-        <v>134836</v>
+        <v>165724</v>
       </c>
       <c r="C256" t="s">
         <v>1774</v>
@@ -30481,7 +30481,7 @@
         <v>10412</v>
       </c>
       <c r="B257" t="n">
-        <v>134837</v>
+        <v>165725</v>
       </c>
       <c r="C257" t="s">
         <v>1780</v>
@@ -30556,7 +30556,7 @@
         <v>10412</v>
       </c>
       <c r="B258" t="n">
-        <v>134838</v>
+        <v>165726</v>
       </c>
       <c r="C258" t="s">
         <v>1789</v>
@@ -30631,7 +30631,7 @@
         <v>10412</v>
       </c>
       <c r="B259" t="n">
-        <v>134839</v>
+        <v>165727</v>
       </c>
       <c r="C259" t="s">
         <v>1796</v>
@@ -30696,7 +30696,7 @@
         <v>10412</v>
       </c>
       <c r="B260" t="n">
-        <v>134840</v>
+        <v>165728</v>
       </c>
       <c r="C260" t="s">
         <v>1802</v>
@@ -30771,7 +30771,7 @@
         <v>10412</v>
       </c>
       <c r="B261" t="n">
-        <v>134841</v>
+        <v>165729</v>
       </c>
       <c r="C261" t="s">
         <v>1811</v>
@@ -30846,7 +30846,7 @@
         <v>10412</v>
       </c>
       <c r="B262" t="n">
-        <v>134842</v>
+        <v>165730</v>
       </c>
       <c r="C262" t="s">
         <v>1818</v>
@@ -30921,7 +30921,7 @@
         <v>10412</v>
       </c>
       <c r="B263" t="n">
-        <v>134843</v>
+        <v>165731</v>
       </c>
       <c r="C263" t="s">
         <v>1826</v>
@@ -30996,7 +30996,7 @@
         <v>10412</v>
       </c>
       <c r="B264" t="n">
-        <v>134844</v>
+        <v>165732</v>
       </c>
       <c r="C264" t="s">
         <v>1835</v>
@@ -31061,7 +31061,7 @@
         <v>10412</v>
       </c>
       <c r="B265" t="n">
-        <v>134845</v>
+        <v>165733</v>
       </c>
       <c r="C265" t="s">
         <v>1842</v>
@@ -31136,7 +31136,7 @@
         <v>10412</v>
       </c>
       <c r="B266" t="n">
-        <v>134846</v>
+        <v>165734</v>
       </c>
       <c r="C266" t="s">
         <v>1849</v>
@@ -31211,7 +31211,7 @@
         <v>10412</v>
       </c>
       <c r="B267" t="n">
-        <v>134847</v>
+        <v>165735</v>
       </c>
       <c r="C267" t="s">
         <v>1858</v>
@@ -31286,7 +31286,7 @@
         <v>10412</v>
       </c>
       <c r="B268" t="n">
-        <v>134848</v>
+        <v>165736</v>
       </c>
       <c r="C268" t="s">
         <v>1866</v>
@@ -31361,7 +31361,7 @@
         <v>10412</v>
       </c>
       <c r="B269" t="n">
-        <v>134849</v>
+        <v>165737</v>
       </c>
       <c r="C269" t="s">
         <v>1874</v>
@@ -31501,7 +31501,7 @@
         <v>10412</v>
       </c>
       <c r="B271" t="n">
-        <v>134850</v>
+        <v>165738</v>
       </c>
       <c r="C271" t="s">
         <v>1893</v>
@@ -31576,7 +31576,7 @@
         <v>10412</v>
       </c>
       <c r="B272" t="n">
-        <v>134851</v>
+        <v>165739</v>
       </c>
       <c r="C272" t="s">
         <v>1900</v>
@@ -31651,7 +31651,7 @@
         <v>10412</v>
       </c>
       <c r="B273" t="n">
-        <v>134852</v>
+        <v>165740</v>
       </c>
       <c r="C273" t="s">
         <v>1909</v>
@@ -31726,7 +31726,7 @@
         <v>10412</v>
       </c>
       <c r="B274" t="n">
-        <v>134853</v>
+        <v>165741</v>
       </c>
       <c r="C274" t="s">
         <v>1916</v>
@@ -31801,7 +31801,7 @@
         <v>10412</v>
       </c>
       <c r="B275" t="n">
-        <v>134854</v>
+        <v>165742</v>
       </c>
       <c r="C275" t="s">
         <v>1922</v>
@@ -31947,7 +31947,7 @@
         <v>10412</v>
       </c>
       <c r="B277" t="n">
-        <v>134855</v>
+        <v>165743</v>
       </c>
       <c r="C277" t="s">
         <v>1939</v>
@@ -32093,7 +32093,7 @@
         <v>10412</v>
       </c>
       <c r="B279" t="n">
-        <v>134856</v>
+        <v>165744</v>
       </c>
       <c r="C279" t="s">
         <v>1952</v>
@@ -32154,7 +32154,7 @@
         <v>10412</v>
       </c>
       <c r="B280" t="n">
-        <v>134857</v>
+        <v>165745</v>
       </c>
       <c r="C280" t="s">
         <v>1959</v>
@@ -32215,7 +32215,7 @@
         <v>10412</v>
       </c>
       <c r="B281" t="n">
-        <v>134858</v>
+        <v>165746</v>
       </c>
       <c r="C281" t="s">
         <v>1966</v>
@@ -32286,7 +32286,7 @@
         <v>10412</v>
       </c>
       <c r="B282" t="n">
-        <v>134859</v>
+        <v>165747</v>
       </c>
       <c r="C282" t="s">
         <v>1973</v>
@@ -32357,7 +32357,7 @@
         <v>10412</v>
       </c>
       <c r="B283" t="n">
-        <v>134860</v>
+        <v>165748</v>
       </c>
       <c r="C283" t="s">
         <v>1978</v>
@@ -32432,7 +32432,7 @@
         <v>10412</v>
       </c>
       <c r="B284" t="n">
-        <v>134861</v>
+        <v>165749</v>
       </c>
       <c r="C284" t="s">
         <v>1986</v>
@@ -32503,7 +32503,7 @@
         <v>10412</v>
       </c>
       <c r="B285" t="n">
-        <v>134862</v>
+        <v>165750</v>
       </c>
       <c r="C285" t="s">
         <v>1992</v>
@@ -32777,7 +32777,7 @@
         <v>10412</v>
       </c>
       <c r="B289" t="n">
-        <v>134863</v>
+        <v>165751</v>
       </c>
       <c r="C289" t="s">
         <v>2020</v>
@@ -32917,7 +32917,7 @@
         <v>10412</v>
       </c>
       <c r="B291" t="n">
-        <v>134864</v>
+        <v>165752</v>
       </c>
       <c r="C291" t="s">
         <v>2035</v>
@@ -33067,7 +33067,7 @@
         <v>10412</v>
       </c>
       <c r="B293" t="n">
-        <v>134865</v>
+        <v>165753</v>
       </c>
       <c r="C293" t="s">
         <v>2051</v>
@@ -33217,7 +33217,7 @@
         <v>10412</v>
       </c>
       <c r="B295" t="n">
-        <v>134834</v>
+        <v>134666</v>
       </c>
       <c r="C295" t="s">
         <v>1766</v>
@@ -33292,7 +33292,7 @@
         <v>10412</v>
       </c>
       <c r="B296" t="n">
-        <v>134866</v>
+        <v>165754</v>
       </c>
       <c r="C296" t="s">
         <v>2075</v>
@@ -33357,7 +33357,7 @@
         <v>10412</v>
       </c>
       <c r="B297" t="n">
-        <v>134867</v>
+        <v>165755</v>
       </c>
       <c r="C297" t="s">
         <v>2085</v>
@@ -33418,7 +33418,7 @@
         <v>10412</v>
       </c>
       <c r="B298" t="n">
-        <v>134868</v>
+        <v>165756</v>
       </c>
       <c r="C298" t="s">
         <v>2092</v>
@@ -33493,7 +33493,7 @@
         <v>10412</v>
       </c>
       <c r="B299" t="n">
-        <v>134869</v>
+        <v>165757</v>
       </c>
       <c r="C299" t="s">
         <v>2101</v>
@@ -33568,7 +33568,7 @@
         <v>10412</v>
       </c>
       <c r="B300" t="n">
-        <v>134870</v>
+        <v>165758</v>
       </c>
       <c r="C300" t="s">
         <v>2110</v>
@@ -34093,7 +34093,7 @@
         <v>10412</v>
       </c>
       <c r="B307" t="n">
-        <v>134871</v>
+        <v>165759</v>
       </c>
       <c r="C307" t="s">
         <v>2164</v>
@@ -34243,7 +34243,7 @@
         <v>10412</v>
       </c>
       <c r="B309" t="n">
-        <v>134872</v>
+        <v>165760</v>
       </c>
       <c r="C309" t="s">
         <v>2178</v>
@@ -34393,7 +34393,7 @@
         <v>10412</v>
       </c>
       <c r="B311" t="n">
-        <v>134873</v>
+        <v>165761</v>
       </c>
       <c r="C311" t="s">
         <v>2190</v>
@@ -34462,7 +34462,7 @@
         <v>10412</v>
       </c>
       <c r="B312" t="n">
-        <v>134874</v>
+        <v>165762</v>
       </c>
       <c r="C312" t="s">
         <v>2197</v>
@@ -34537,7 +34537,7 @@
         <v>10412</v>
       </c>
       <c r="B313" t="n">
-        <v>134875</v>
+        <v>165763</v>
       </c>
       <c r="C313" t="s">
         <v>2205</v>
@@ -34687,7 +34687,7 @@
         <v>10412</v>
       </c>
       <c r="B315" t="n">
-        <v>134876</v>
+        <v>165764</v>
       </c>
       <c r="C315" t="s">
         <v>2222</v>
@@ -34762,7 +34762,7 @@
         <v>10412</v>
       </c>
       <c r="B316" t="n">
-        <v>134877</v>
+        <v>165765</v>
       </c>
       <c r="C316" t="s">
         <v>2231</v>
@@ -34837,7 +34837,7 @@
         <v>10412</v>
       </c>
       <c r="B317" t="n">
-        <v>134878</v>
+        <v>165766</v>
       </c>
       <c r="C317" t="s">
         <v>2239</v>
@@ -34902,7 +34902,7 @@
         <v>10412</v>
       </c>
       <c r="B318" t="n">
-        <v>134879</v>
+        <v>165767</v>
       </c>
       <c r="C318" t="s">
         <v>2248</v>
@@ -35488,7 +35488,7 @@
         <v>10412</v>
       </c>
       <c r="B326" t="n">
-        <v>134880</v>
+        <v>165768</v>
       </c>
       <c r="C326" t="s">
         <v>2308</v>
@@ -35699,7 +35699,7 @@
         <v>10412</v>
       </c>
       <c r="B329" t="n">
-        <v>134881</v>
+        <v>165769</v>
       </c>
       <c r="C329" t="s">
         <v>2332</v>
@@ -35774,7 +35774,7 @@
         <v>10412</v>
       </c>
       <c r="B330" t="n">
-        <v>134882</v>
+        <v>165770</v>
       </c>
       <c r="C330" t="s">
         <v>2340</v>
@@ -35924,7 +35924,7 @@
         <v>10412</v>
       </c>
       <c r="B332" t="n">
-        <v>134883</v>
+        <v>165771</v>
       </c>
       <c r="C332" t="s">
         <v>2355</v>
@@ -35999,7 +35999,7 @@
         <v>10412</v>
       </c>
       <c r="B333" t="n">
-        <v>134884</v>
+        <v>165772</v>
       </c>
       <c r="C333" t="s">
         <v>2364</v>
@@ -36074,7 +36074,7 @@
         <v>10412</v>
       </c>
       <c r="B334" t="n">
-        <v>134885</v>
+        <v>165773</v>
       </c>
       <c r="C334" t="s">
         <v>2371</v>
@@ -36224,7 +36224,7 @@
         <v>10412</v>
       </c>
       <c r="B336" t="n">
-        <v>134886</v>
+        <v>165774</v>
       </c>
       <c r="C336" t="s">
         <v>2386</v>
@@ -36299,7 +36299,7 @@
         <v>10412</v>
       </c>
       <c r="B337" t="n">
-        <v>134887</v>
+        <v>165775</v>
       </c>
       <c r="C337" t="s">
         <v>2393</v>
@@ -36374,7 +36374,7 @@
         <v>10412</v>
       </c>
       <c r="B338" t="n">
-        <v>134888</v>
+        <v>165776</v>
       </c>
       <c r="C338" t="s">
         <v>2402</v>
@@ -36524,7 +36524,7 @@
         <v>10412</v>
       </c>
       <c r="B340" t="n">
-        <v>134889</v>
+        <v>165777</v>
       </c>
       <c r="C340" t="s">
         <v>2418</v>
@@ -36599,7 +36599,7 @@
         <v>10412</v>
       </c>
       <c r="B341" t="n">
-        <v>134890</v>
+        <v>165778</v>
       </c>
       <c r="C341" t="s">
         <v>2427</v>
@@ -36749,7 +36749,7 @@
         <v>10412</v>
       </c>
       <c r="B343" t="n">
-        <v>134891</v>
+        <v>165779</v>
       </c>
       <c r="C343" t="s">
         <v>2441</v>
@@ -36824,7 +36824,7 @@
         <v>10412</v>
       </c>
       <c r="B344" t="n">
-        <v>134892</v>
+        <v>165780</v>
       </c>
       <c r="C344" t="s">
         <v>2448</v>
@@ -37045,7 +37045,7 @@
         <v>10412</v>
       </c>
       <c r="B347" t="n">
-        <v>134893</v>
+        <v>165781</v>
       </c>
       <c r="C347" t="s">
         <v>2471</v>
@@ -37120,7 +37120,7 @@
         <v>10412</v>
       </c>
       <c r="B348" t="n">
-        <v>134894</v>
+        <v>165782</v>
       </c>
       <c r="C348" t="s">
         <v>2480</v>
@@ -37195,7 +37195,7 @@
         <v>10412</v>
       </c>
       <c r="B349" t="n">
-        <v>134895</v>
+        <v>165783</v>
       </c>
       <c r="C349" t="s">
         <v>2489</v>
@@ -37270,7 +37270,7 @@
         <v>10412</v>
       </c>
       <c r="B350" t="n">
-        <v>134896</v>
+        <v>165784</v>
       </c>
       <c r="C350" t="s">
         <v>2499</v>
@@ -37345,7 +37345,7 @@
         <v>10412</v>
       </c>
       <c r="B351" t="n">
-        <v>134897</v>
+        <v>165785</v>
       </c>
       <c r="C351" t="s">
         <v>2506</v>
@@ -37420,7 +37420,7 @@
         <v>10412</v>
       </c>
       <c r="B352" t="n">
-        <v>134898</v>
+        <v>165786</v>
       </c>
       <c r="C352" t="s">
         <v>2515</v>
@@ -37495,7 +37495,7 @@
         <v>10412</v>
       </c>
       <c r="B353" t="n">
-        <v>134899</v>
+        <v>165787</v>
       </c>
       <c r="C353" t="s">
         <v>2522</v>
@@ -37570,7 +37570,7 @@
         <v>10412</v>
       </c>
       <c r="B354" t="n">
-        <v>134900</v>
+        <v>165788</v>
       </c>
       <c r="C354" t="s">
         <v>2531</v>
@@ -37645,7 +37645,7 @@
         <v>10412</v>
       </c>
       <c r="B355" t="n">
-        <v>134901</v>
+        <v>165789</v>
       </c>
       <c r="C355" t="s">
         <v>2537</v>
@@ -37720,7 +37720,7 @@
         <v>10412</v>
       </c>
       <c r="B356" t="n">
-        <v>134902</v>
+        <v>165790</v>
       </c>
       <c r="C356" t="s">
         <v>2547</v>
@@ -37870,7 +37870,7 @@
         <v>10412</v>
       </c>
       <c r="B358" t="n">
-        <v>134903</v>
+        <v>165791</v>
       </c>
       <c r="C358" t="s">
         <v>2563</v>
@@ -38095,7 +38095,7 @@
         <v>10412</v>
       </c>
       <c r="B361" t="n">
-        <v>134904</v>
+        <v>165792</v>
       </c>
       <c r="C361" t="s">
         <v>2587</v>
@@ -38320,7 +38320,7 @@
         <v>10412</v>
       </c>
       <c r="B364" t="n">
-        <v>134905</v>
+        <v>165793</v>
       </c>
       <c r="C364" t="s">
         <v>2609</v>
@@ -38395,7 +38395,7 @@
         <v>10412</v>
       </c>
       <c r="B365" t="n">
-        <v>134906</v>
+        <v>165794</v>
       </c>
       <c r="C365" t="s">
         <v>2616</v>
@@ -38470,7 +38470,7 @@
         <v>10412</v>
       </c>
       <c r="B366" t="n">
-        <v>134907</v>
+        <v>165795</v>
       </c>
       <c r="C366" t="s">
         <v>2625</v>
@@ -38620,7 +38620,7 @@
         <v>10412</v>
       </c>
       <c r="B368" t="n">
-        <v>134908</v>
+        <v>165796</v>
       </c>
       <c r="C368" t="s">
         <v>2639</v>
@@ -38689,7 +38689,7 @@
         <v>10412</v>
       </c>
       <c r="B369" t="n">
-        <v>134909</v>
+        <v>165797</v>
       </c>
       <c r="C369" t="s">
         <v>2648</v>
@@ -38758,7 +38758,7 @@
         <v>10412</v>
       </c>
       <c r="B370" t="n">
-        <v>134910</v>
+        <v>165798</v>
       </c>
       <c r="C370" t="s">
         <v>2654</v>
@@ -39042,7 +39042,7 @@
         <v>10412</v>
       </c>
       <c r="B374" t="n">
-        <v>134911</v>
+        <v>165799</v>
       </c>
       <c r="C374" t="s">
         <v>2686</v>
@@ -39192,7 +39192,7 @@
         <v>10412</v>
       </c>
       <c r="B376" t="n">
-        <v>134912</v>
+        <v>165800</v>
       </c>
       <c r="C376" t="s">
         <v>2699</v>
@@ -39267,7 +39267,7 @@
         <v>10412</v>
       </c>
       <c r="B377" t="n">
-        <v>134913</v>
+        <v>165801</v>
       </c>
       <c r="C377" t="s">
         <v>2706</v>
@@ -39642,7 +39642,7 @@
         <v>10412</v>
       </c>
       <c r="B382" t="n">
-        <v>134914</v>
+        <v>165802</v>
       </c>
       <c r="C382" t="s">
         <v>2743</v>
@@ -39713,7 +39713,7 @@
         <v>10412</v>
       </c>
       <c r="B383" t="n">
-        <v>134915</v>
+        <v>165803</v>
       </c>
       <c r="C383" t="s">
         <v>2752</v>
@@ -39788,7 +39788,7 @@
         <v>10412</v>
       </c>
       <c r="B384" t="n">
-        <v>134916</v>
+        <v>165804</v>
       </c>
       <c r="C384" t="s">
         <v>2759</v>
@@ -40013,7 +40013,7 @@
         <v>10412</v>
       </c>
       <c r="B387" t="n">
-        <v>134917</v>
+        <v>165805</v>
       </c>
       <c r="C387" t="s">
         <v>2783</v>
@@ -40086,7 +40086,7 @@
         <v>10412</v>
       </c>
       <c r="B388" t="n">
-        <v>134918</v>
+        <v>165806</v>
       </c>
       <c r="C388" t="s">
         <v>2790</v>
@@ -40461,7 +40461,7 @@
         <v>10412</v>
       </c>
       <c r="B393" t="n">
-        <v>134919</v>
+        <v>137495</v>
       </c>
       <c r="C393" t="s">
         <v>2827</v>
@@ -40984,7 +40984,7 @@
         <v>10412</v>
       </c>
       <c r="B400" t="n">
-        <v>134920</v>
+        <v>165807</v>
       </c>
       <c r="C400" t="s">
         <v>2884</v>
@@ -41059,7 +41059,7 @@
         <v>10412</v>
       </c>
       <c r="B401" t="n">
-        <v>134921</v>
+        <v>165808</v>
       </c>
       <c r="C401" t="s">
         <v>2891</v>
@@ -41209,7 +41209,7 @@
         <v>10412</v>
       </c>
       <c r="B403" t="n">
-        <v>134922</v>
+        <v>165809</v>
       </c>
       <c r="C403" t="s">
         <v>2909</v>
@@ -41284,7 +41284,7 @@
         <v>10412</v>
       </c>
       <c r="B404" t="n">
-        <v>134923</v>
+        <v>165810</v>
       </c>
       <c r="C404" t="s">
         <v>2918</v>
@@ -41641,7 +41641,7 @@
         <v>10412</v>
       </c>
       <c r="B409" t="n">
-        <v>134924</v>
+        <v>165811</v>
       </c>
       <c r="C409" t="s">
         <v>2957</v>
@@ -41791,7 +41791,7 @@
         <v>10412</v>
       </c>
       <c r="B411" t="n">
-        <v>134925</v>
+        <v>165812</v>
       </c>
       <c r="C411" t="s">
         <v>2975</v>
@@ -41866,7 +41866,7 @@
         <v>10412</v>
       </c>
       <c r="B412" t="n">
-        <v>134926</v>
+        <v>165813</v>
       </c>
       <c r="C412" t="s">
         <v>2985</v>
@@ -41941,7 +41941,7 @@
         <v>10412</v>
       </c>
       <c r="B413" t="n">
-        <v>134927</v>
+        <v>165814</v>
       </c>
       <c r="C413" t="s">
         <v>2994</v>
@@ -42162,7 +42162,7 @@
         <v>10412</v>
       </c>
       <c r="B416" t="n">
-        <v>134928</v>
+        <v>165815</v>
       </c>
       <c r="C416" t="s">
         <v>3019</v>
@@ -42237,7 +42237,7 @@
         <v>10412</v>
       </c>
       <c r="B417" t="n">
-        <v>134929</v>
+        <v>165816</v>
       </c>
       <c r="C417" t="s">
         <v>3028</v>
@@ -42537,7 +42537,7 @@
         <v>10412</v>
       </c>
       <c r="B421" t="n">
-        <v>134930</v>
+        <v>165817</v>
       </c>
       <c r="C421" t="s">
         <v>3060</v>
@@ -42612,7 +42612,7 @@
         <v>10412</v>
       </c>
       <c r="B422" t="n">
-        <v>134931</v>
+        <v>165818</v>
       </c>
       <c r="C422" t="s">
         <v>3066</v>
@@ -42687,7 +42687,7 @@
         <v>10412</v>
       </c>
       <c r="B423" t="n">
-        <v>134932</v>
+        <v>165819</v>
       </c>
       <c r="C423" t="s">
         <v>3076</v>
@@ -42762,7 +42762,7 @@
         <v>10412</v>
       </c>
       <c r="B424" t="n">
-        <v>134933</v>
+        <v>165820</v>
       </c>
       <c r="C424" t="s">
         <v>3083</v>
@@ -42987,7 +42987,7 @@
         <v>10412</v>
       </c>
       <c r="B427" t="n">
-        <v>134934</v>
+        <v>165821</v>
       </c>
       <c r="C427" t="s">
         <v>3108</v>
@@ -43208,7 +43208,7 @@
         <v>10412</v>
       </c>
       <c r="B430" t="n">
-        <v>134935</v>
+        <v>165822</v>
       </c>
       <c r="C430" t="s">
         <v>3131</v>
@@ -43654,7 +43654,7 @@
         <v>10412</v>
       </c>
       <c r="B436" t="n">
-        <v>134936</v>
+        <v>165823</v>
       </c>
       <c r="C436" t="s">
         <v>3182</v>
@@ -43800,7 +43800,7 @@
         <v>10412</v>
       </c>
       <c r="B438" t="n">
-        <v>134937</v>
+        <v>165824</v>
       </c>
       <c r="C438" t="s">
         <v>3195</v>
@@ -43871,7 +43871,7 @@
         <v>10412</v>
       </c>
       <c r="B439" t="n">
-        <v>134938</v>
+        <v>165825</v>
       </c>
       <c r="C439" t="s">
         <v>3203</v>
@@ -44013,7 +44013,7 @@
         <v>10412</v>
       </c>
       <c r="B441" t="n">
-        <v>134939</v>
+        <v>165826</v>
       </c>
       <c r="C441" t="s">
         <v>3217</v>
@@ -44155,7 +44155,7 @@
         <v>10412</v>
       </c>
       <c r="B443" t="n">
-        <v>134940</v>
+        <v>165827</v>
       </c>
       <c r="C443" t="s">
         <v>3230</v>
@@ -44226,7 +44226,7 @@
         <v>10412</v>
       </c>
       <c r="B444" t="n">
-        <v>134941</v>
+        <v>165828</v>
       </c>
       <c r="C444" t="s">
         <v>3236</v>
@@ -44297,7 +44297,7 @@
         <v>10412</v>
       </c>
       <c r="B445" t="n">
-        <v>134942</v>
+        <v>134757</v>
       </c>
       <c r="C445" t="s">
         <v>3242</v>
@@ -44358,7 +44358,7 @@
         <v>10412</v>
       </c>
       <c r="B446" t="n">
-        <v>134943</v>
+        <v>165829</v>
       </c>
       <c r="C446" t="s">
         <v>3249</v>
@@ -44429,7 +44429,7 @@
         <v>10412</v>
       </c>
       <c r="B447" t="n">
-        <v>134944</v>
+        <v>165830</v>
       </c>
       <c r="C447" t="s">
         <v>3255</v>
@@ -44571,7 +44571,7 @@
         <v>10412</v>
       </c>
       <c r="B449" t="n">
-        <v>134945</v>
+        <v>165831</v>
       </c>
       <c r="C449" t="s">
         <v>3268</v>
@@ -44642,7 +44642,7 @@
         <v>10412</v>
       </c>
       <c r="B450" t="n">
-        <v>134946</v>
+        <v>165832</v>
       </c>
       <c r="C450" t="s">
         <v>3274</v>
@@ -44709,7 +44709,7 @@
         <v>10412</v>
       </c>
       <c r="B451" t="n">
-        <v>134947</v>
+        <v>165833</v>
       </c>
       <c r="C451" t="s">
         <v>3279</v>
@@ -44780,7 +44780,7 @@
         <v>10412</v>
       </c>
       <c r="B452" t="n">
-        <v>134948</v>
+        <v>165834</v>
       </c>
       <c r="C452" t="s">
         <v>3283</v>
@@ -44918,7 +44918,7 @@
         <v>10412</v>
       </c>
       <c r="B454" t="n">
-        <v>134949</v>
+        <v>165835</v>
       </c>
       <c r="C454" t="s">
         <v>3295</v>
@@ -45202,7 +45202,7 @@
         <v>10412</v>
       </c>
       <c r="B458" t="n">
-        <v>134950</v>
+        <v>165836</v>
       </c>
       <c r="C458" t="s">
         <v>3321</v>
@@ -45352,7 +45352,7 @@
         <v>10412</v>
       </c>
       <c r="B460" t="n">
-        <v>134951</v>
+        <v>165837</v>
       </c>
       <c r="C460" t="s">
         <v>3338</v>
@@ -45427,7 +45427,7 @@
         <v>10412</v>
       </c>
       <c r="B461" t="n">
-        <v>134952</v>
+        <v>165838</v>
       </c>
       <c r="C461" t="s">
         <v>3345</v>
@@ -45502,7 +45502,7 @@
         <v>10412</v>
       </c>
       <c r="B462" t="n">
-        <v>134953</v>
+        <v>165839</v>
       </c>
       <c r="C462" t="s">
         <v>3355</v>
@@ -45727,7 +45727,7 @@
         <v>10412</v>
       </c>
       <c r="B465" t="n">
-        <v>134954</v>
+        <v>165840</v>
       </c>
       <c r="C465" t="s">
         <v>3380</v>
@@ -45802,7 +45802,7 @@
         <v>10412</v>
       </c>
       <c r="B466" t="n">
-        <v>134955</v>
+        <v>165841</v>
       </c>
       <c r="C466" t="s">
         <v>3388</v>
@@ -45877,7 +45877,7 @@
         <v>10412</v>
       </c>
       <c r="B467" t="n">
-        <v>134956</v>
+        <v>165842</v>
       </c>
       <c r="C467" t="s">
         <v>3394</v>
@@ -46027,7 +46027,7 @@
         <v>10412</v>
       </c>
       <c r="B469" t="n">
-        <v>134957</v>
+        <v>165843</v>
       </c>
       <c r="C469" t="s">
         <v>3409</v>
@@ -46619,7 +46619,7 @@
         <v>10412</v>
       </c>
       <c r="B477" t="n">
-        <v>134958</v>
+        <v>165844</v>
       </c>
       <c r="C477" t="s">
         <v>3472</v>
@@ -46767,7 +46767,7 @@
         <v>10412</v>
       </c>
       <c r="B479" t="n">
-        <v>134941</v>
+        <v>134757</v>
       </c>
       <c r="C479" t="s">
         <v>3242</v>
@@ -46915,7 +46915,7 @@
         <v>10412</v>
       </c>
       <c r="B481" t="n">
-        <v>134959</v>
+        <v>165845</v>
       </c>
       <c r="C481" t="s">
         <v>3503</v>
@@ -46990,7 +46990,7 @@
         <v>10412</v>
       </c>
       <c r="B482" t="n">
-        <v>134960</v>
+        <v>165846</v>
       </c>
       <c r="C482" t="s">
         <v>3509</v>
@@ -47065,7 +47065,7 @@
         <v>10412</v>
       </c>
       <c r="B483" t="n">
-        <v>134961</v>
+        <v>165847</v>
       </c>
       <c r="C483" t="s">
         <v>3519</v>
@@ -47215,7 +47215,7 @@
         <v>10412</v>
       </c>
       <c r="B485" t="n">
-        <v>134962</v>
+        <v>165848</v>
       </c>
       <c r="C485" t="s">
         <v>3532</v>
@@ -47286,7 +47286,7 @@
         <v>10412</v>
       </c>
       <c r="B486" t="n">
-        <v>134963</v>
+        <v>165849</v>
       </c>
       <c r="C486" t="s">
         <v>3541</v>
@@ -47436,7 +47436,7 @@
         <v>10412</v>
       </c>
       <c r="B488" t="n">
-        <v>134964</v>
+        <v>165850</v>
       </c>
       <c r="C488" t="s">
         <v>3558</v>
@@ -47511,7 +47511,7 @@
         <v>10412</v>
       </c>
       <c r="B489" t="n">
-        <v>134965</v>
+        <v>165851</v>
       </c>
       <c r="C489" t="s">
         <v>3565</v>
@@ -47661,7 +47661,7 @@
         <v>10412</v>
       </c>
       <c r="B491" t="n">
-        <v>134658</v>
+        <v>134762</v>
       </c>
       <c r="C491" t="s">
         <v>319</v>
@@ -47809,7 +47809,7 @@
         <v>10412</v>
       </c>
       <c r="B493" t="n">
-        <v>134966</v>
+        <v>165852</v>
       </c>
       <c r="C493" t="s">
         <v>3594</v>
@@ -47884,7 +47884,7 @@
         <v>10412</v>
       </c>
       <c r="B494" t="n">
-        <v>134967</v>
+        <v>165853</v>
       </c>
       <c r="C494" t="s">
         <v>3600</v>
@@ -47959,7 +47959,7 @@
         <v>10412</v>
       </c>
       <c r="B495" t="n">
-        <v>134968</v>
+        <v>165854</v>
       </c>
       <c r="C495" t="s">
         <v>3606</v>
@@ -48030,7 +48030,7 @@
         <v>10412</v>
       </c>
       <c r="B496" t="n">
-        <v>134969</v>
+        <v>165855</v>
       </c>
       <c r="C496" t="s">
         <v>3612</v>
@@ -48176,7 +48176,7 @@
         <v>10412</v>
       </c>
       <c r="B498" t="n">
-        <v>134970</v>
+        <v>165856</v>
       </c>
       <c r="C498" t="s">
         <v>3626</v>
@@ -48251,7 +48251,7 @@
         <v>10412</v>
       </c>
       <c r="B499" t="n">
-        <v>134971</v>
+        <v>165857</v>
       </c>
       <c r="C499" t="s">
         <v>3633</v>
@@ -48401,7 +48401,7 @@
         <v>10412</v>
       </c>
       <c r="B501" t="n">
-        <v>134972</v>
+        <v>165858</v>
       </c>
       <c r="C501" t="s">
         <v>3651</v>
@@ -48472,7 +48472,7 @@
         <v>10412</v>
       </c>
       <c r="B502" t="n">
-        <v>134973</v>
+        <v>165859</v>
       </c>
       <c r="C502" t="s">
         <v>3658</v>
@@ -48543,7 +48543,7 @@
         <v>10412</v>
       </c>
       <c r="B503" t="n">
-        <v>134974</v>
+        <v>165860</v>
       </c>
       <c r="C503" t="s">
         <v>3666</v>
@@ -48614,7 +48614,7 @@
         <v>10412</v>
       </c>
       <c r="B504" t="n">
-        <v>134975</v>
+        <v>165861</v>
       </c>
       <c r="C504" t="s">
         <v>3674</v>
@@ -48685,7 +48685,7 @@
         <v>10412</v>
       </c>
       <c r="B505" t="n">
-        <v>134976</v>
+        <v>165862</v>
       </c>
       <c r="C505" t="s">
         <v>3680</v>
@@ -48756,7 +48756,7 @@
         <v>10412</v>
       </c>
       <c r="B506" t="n">
-        <v>134977</v>
+        <v>165863</v>
       </c>
       <c r="C506" t="s">
         <v>3688</v>
@@ -48827,7 +48827,7 @@
         <v>10412</v>
       </c>
       <c r="B507" t="n">
-        <v>134978</v>
+        <v>165864</v>
       </c>
       <c r="C507" t="s">
         <v>3698</v>
@@ -48898,7 +48898,7 @@
         <v>10412</v>
       </c>
       <c r="B508" t="n">
-        <v>134979</v>
+        <v>165865</v>
       </c>
       <c r="C508" t="s">
         <v>3708</v>
@@ -48969,7 +48969,7 @@
         <v>10412</v>
       </c>
       <c r="B509" t="n">
-        <v>134980</v>
+        <v>165866</v>
       </c>
       <c r="C509" t="s">
         <v>3717</v>
@@ -49044,7 +49044,7 @@
         <v>10412</v>
       </c>
       <c r="B510" t="n">
-        <v>134981</v>
+        <v>165867</v>
       </c>
       <c r="C510" t="s">
         <v>3727</v>
@@ -49119,7 +49119,7 @@
         <v>10412</v>
       </c>
       <c r="B511" t="n">
-        <v>134982</v>
+        <v>165868</v>
       </c>
       <c r="C511" t="s">
         <v>3734</v>
@@ -49194,7 +49194,7 @@
         <v>10412</v>
       </c>
       <c r="B512" t="n">
-        <v>134983</v>
+        <v>165869</v>
       </c>
       <c r="C512" t="s">
         <v>3742</v>
@@ -49265,7 +49265,7 @@
         <v>10412</v>
       </c>
       <c r="B513" t="n">
-        <v>134984</v>
+        <v>165870</v>
       </c>
       <c r="C513" t="s">
         <v>3749</v>
@@ -49340,7 +49340,7 @@
         <v>10412</v>
       </c>
       <c r="B514" t="n">
-        <v>134985</v>
+        <v>165871</v>
       </c>
       <c r="C514" t="s">
         <v>3757</v>
@@ -49411,7 +49411,7 @@
         <v>10412</v>
       </c>
       <c r="B515" t="n">
-        <v>134986</v>
+        <v>165872</v>
       </c>
       <c r="C515" t="s">
         <v>3765</v>
@@ -49486,7 +49486,7 @@
         <v>10412</v>
       </c>
       <c r="B516" t="n">
-        <v>134987</v>
+        <v>165873</v>
       </c>
       <c r="C516" t="s">
         <v>3775</v>
@@ -49561,7 +49561,7 @@
         <v>10412</v>
       </c>
       <c r="B517" t="n">
-        <v>134988</v>
+        <v>165874</v>
       </c>
       <c r="C517" t="s">
         <v>3784</v>
@@ -49636,7 +49636,7 @@
         <v>10412</v>
       </c>
       <c r="B518" t="n">
-        <v>134989</v>
+        <v>165875</v>
       </c>
       <c r="C518" t="s">
         <v>3794</v>
@@ -49705,7 +49705,7 @@
         <v>10412</v>
       </c>
       <c r="B519" t="n">
-        <v>134990</v>
+        <v>165876</v>
       </c>
       <c r="C519" t="s">
         <v>3804</v>
@@ -49780,7 +49780,7 @@
         <v>10412</v>
       </c>
       <c r="B520" t="n">
-        <v>134991</v>
+        <v>165877</v>
       </c>
       <c r="C520" t="s">
         <v>3814</v>
@@ -49855,7 +49855,7 @@
         <v>10412</v>
       </c>
       <c r="B521" t="n">
-        <v>134992</v>
+        <v>165878</v>
       </c>
       <c r="C521" t="s">
         <v>3823</v>
@@ -49926,7 +49926,7 @@
         <v>10412</v>
       </c>
       <c r="B522" t="n">
-        <v>134993</v>
+        <v>165879</v>
       </c>
       <c r="C522" t="s">
         <v>3831</v>
@@ -49997,7 +49997,7 @@
         <v>10412</v>
       </c>
       <c r="B523" t="n">
-        <v>134994</v>
+        <v>165880</v>
       </c>
       <c r="C523" t="s">
         <v>3839</v>
@@ -50054,7 +50054,7 @@
         <v>10412</v>
       </c>
       <c r="B524" t="n">
-        <v>134995</v>
+        <v>165881</v>
       </c>
       <c r="C524" t="s">
         <v>3845</v>
@@ -50119,7 +50119,7 @@
         <v>10412</v>
       </c>
       <c r="B525" t="n">
-        <v>134996</v>
+        <v>165882</v>
       </c>
       <c r="C525" t="s">
         <v>3852</v>
